--- a/UserProfile/excel/brijesh.xlsx
+++ b/UserProfile/excel/brijesh.xlsx
@@ -618,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1843,12 +1843,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>45500</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="n">
+      <c r="C27" t="n">
+        <v>45500</v>
+      </c>
+      <c r="D27" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E27" t="inlineStr">
@@ -1861,15 +1859,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>117.20</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>397.00</t>
-        </is>
+      <c r="G27" t="n">
+        <v>117.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>397</v>
       </c>
       <c r="I27" t="n">
         <v>279.8</v>
@@ -1895,12 +1889,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20300</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="n">
+      <c r="C28" t="n">
+        <v>20300</v>
+      </c>
+      <c r="D28" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="E28" t="inlineStr">
@@ -1913,15 +1905,11 @@
           <t>12:39</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>112.13</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>150.00</t>
-        </is>
+      <c r="G28" t="n">
+        <v>112.13</v>
+      </c>
+      <c r="H28" t="n">
+        <v>150</v>
       </c>
       <c r="I28" t="n">
         <v>37.87</v>
@@ -1934,6 +1922,110 @@
       </c>
       <c r="L28" t="n">
         <v>119.73522</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20350</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10:18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>12:32</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>109.79</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>-24.01000000000001</v>
+      </c>
+      <c r="J29" t="n">
+        <v>360</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-8643.600000000002</v>
+      </c>
+      <c r="L29" t="n">
+        <v>73.88303534400001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>45800</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10:20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>14:05</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>355.58</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>314.00</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>-41.57999999999998</v>
+      </c>
+      <c r="J30" t="n">
+        <v>90</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-3742.199999999998</v>
+      </c>
+      <c r="L30" t="n">
+        <v>70.61704680000001</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +2039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2780,7 +2872,7 @@
       <c r="D15" t="n">
         <v>20000</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="F15" t="inlineStr">
@@ -2816,6 +2908,63 @@
       </c>
       <c r="O15" t="n">
         <v>160.2717492</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Nifty Straddle</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NIFTY</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20100</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>45183</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>09:26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>14:56</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>88.75</v>
+      </c>
+      <c r="I16" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>59.52999999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>100</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5952.999999999999</v>
+      </c>
+      <c r="O16" t="n">
+        <v>145.12918176</v>
       </c>
     </row>
   </sheetData>
@@ -2829,7 +2978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2977,6 +3126,37 @@
         <v>581.7200798899999</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20125.15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20175.72</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="G5" t="n">
+        <v>44.11999999999971</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4411.999999999971</v>
+      </c>
+      <c r="I5" t="n">
+        <v>580.573851836</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/UserProfile/excel/brijesh.xlsx
+++ b/UserProfile/excel/brijesh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Desktop/Main/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB741DA-E339-FD42-A91F-5A00FA884093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7678C5-B301-4F42-834E-3E1261F06AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="129">
   <si>
     <t>Strategy</t>
   </si>
@@ -285,37 +285,49 @@
     <t>13:13</t>
   </si>
   <si>
-    <t>NIFTY0</t>
-  </si>
-  <si>
     <t>11:53</t>
   </si>
   <si>
-    <t>FINNIFTY1</t>
-  </si>
-  <si>
     <t>10:24</t>
   </si>
   <si>
     <t>10:50</t>
   </si>
   <si>
-    <t>73.65</t>
-  </si>
-  <si>
-    <t>61.83</t>
-  </si>
-  <si>
     <t>10:27</t>
   </si>
   <si>
     <t>13:44</t>
   </si>
   <si>
-    <t>17.95</t>
-  </si>
-  <si>
-    <t>2.00</t>
+    <t>19750</t>
+  </si>
+  <si>
+    <t>10:33</t>
+  </si>
+  <si>
+    <t>10:44</t>
+  </si>
+  <si>
+    <t>64.04</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>19600</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>109.56</t>
+  </si>
+  <si>
+    <t>111.00</t>
   </si>
   <si>
     <t>Trade Type</t>
@@ -766,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2784,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C54">
         <v>19800</v>
@@ -2793,7 +2805,7 @@
         <v>45203</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F54" t="s">
         <v>71</v>
@@ -2822,25 +2834,25 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>43900</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <v>45204</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" t="s">
-        <v>92</v>
-      </c>
-      <c r="H55" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="G55">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="H55">
+        <v>61.83</v>
       </c>
       <c r="I55">
         <v>-11.820000000000009</v>
@@ -2860,25 +2872,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>19350</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <v>45204</v>
       </c>
       <c r="E56" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
-      </c>
-      <c r="G56" t="s">
-        <v>96</v>
-      </c>
-      <c r="H56" t="s">
-        <v>97</v>
+        <v>91</v>
+      </c>
+      <c r="G56">
+        <v>17.95</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
       </c>
       <c r="I56">
         <v>-15.95</v>
@@ -2891,6 +2903,82 @@
       </c>
       <c r="L56">
         <v>36.272326000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45205</v>
+      </c>
+      <c r="E57" t="s">
+        <v>93</v>
+      </c>
+      <c r="F57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" t="s">
+        <v>96</v>
+      </c>
+      <c r="I57">
+        <v>-14.04000000000001</v>
+      </c>
+      <c r="J57">
+        <v>560</v>
+      </c>
+      <c r="K57">
+        <v>-7862.4000000000033</v>
+      </c>
+      <c r="L57">
+        <v>70.293040000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" t="s">
+        <v>101</v>
+      </c>
+      <c r="I58">
+        <v>1.4399999999999979</v>
+      </c>
+      <c r="J58">
+        <v>550</v>
+      </c>
+      <c r="K58">
+        <v>791.99999999999875</v>
+      </c>
+      <c r="L58">
+        <v>112.469289</v>
       </c>
     </row>
   </sheetData>
@@ -2900,7 +2988,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2914,7 +3002,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2935,10 +3023,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -2955,13 +3043,13 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -2970,10 +3058,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>210</v>
@@ -2993,13 +3081,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -3008,10 +3096,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H3">
         <v>171.25</v>
@@ -3031,13 +3119,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -3049,7 +3137,7 @@
         <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H4">
         <v>154.85</v>
@@ -3078,13 +3166,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -3093,10 +3181,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H5">
         <v>128.80000000000001</v>
@@ -3125,13 +3213,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -3140,10 +3228,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H6">
         <v>106.95</v>
@@ -3172,13 +3260,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -3187,10 +3275,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H7">
         <v>191.05</v>
@@ -3219,13 +3307,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -3234,10 +3322,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H8">
         <v>173.5</v>
@@ -3266,13 +3354,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -3281,7 +3369,7 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
@@ -3313,13 +3401,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>19400</v>
@@ -3328,10 +3416,10 @@
         <v>45155</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H10">
         <v>92.3</v>
@@ -3360,13 +3448,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>19300</v>
@@ -3375,10 +3463,10 @@
         <v>45156</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H11">
         <v>189.35</v>
@@ -3407,13 +3495,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -3422,10 +3510,10 @@
         <v>45159</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H12">
         <v>165.15</v>
@@ -3454,13 +3542,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D13">
         <v>19400</v>
@@ -3469,10 +3557,10 @@
         <v>45160</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H13">
         <v>130.94999999999999</v>
@@ -3501,13 +3589,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14">
         <v>19400</v>
@@ -3516,10 +3604,10 @@
         <v>45161</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H14">
         <v>95.05</v>
@@ -3548,13 +3636,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D15">
         <v>20000</v>
@@ -3563,10 +3651,10 @@
         <v>45182</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H15">
         <v>125.2</v>
@@ -3595,13 +3683,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D16">
         <v>20100</v>
@@ -3610,10 +3698,10 @@
         <v>45183</v>
       </c>
       <c r="F16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G16" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>88.75</v>
@@ -3642,13 +3730,13 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D17">
         <v>20200</v>
@@ -3657,10 +3745,10 @@
         <v>45184</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H17">
         <v>193.25</v>
@@ -3689,13 +3777,13 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>20100</v>
@@ -3704,10 +3792,10 @@
         <v>45187</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H18">
         <v>171.37</v>
@@ -3736,13 +3824,13 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D19">
         <v>20000</v>
@@ -3751,10 +3839,10 @@
         <v>45189</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H19">
         <v>131.30000000000001</v>
@@ -3783,13 +3871,13 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>19800</v>
@@ -3798,10 +3886,10 @@
         <v>45190</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H20">
         <v>75.05</v>
@@ -3830,13 +3918,13 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D21">
         <v>19800</v>
@@ -3845,10 +3933,10 @@
         <v>45191</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H21">
         <v>201.75</v>
@@ -3877,13 +3965,13 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D22">
         <v>19600</v>
@@ -3892,10 +3980,10 @@
         <v>45194</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H22">
         <v>197.15</v>
@@ -3924,13 +4012,13 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23">
         <v>19700</v>
@@ -3939,10 +4027,10 @@
         <v>45195</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H23">
         <v>139.32</v>
@@ -3971,13 +4059,13 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B24" t="s">
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D24">
         <v>19600</v>
@@ -3986,10 +4074,10 @@
         <v>45196</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H24">
         <v>119.02</v>
@@ -4018,13 +4106,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D25">
         <v>19700</v>
@@ -4033,10 +4121,10 @@
         <v>45197</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H25">
         <v>77.099999999999994</v>
@@ -4065,13 +4153,13 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D26">
         <v>19600</v>
@@ -4080,10 +4168,10 @@
         <v>45198</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H26">
         <v>208.89</v>
@@ -4112,13 +4200,13 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D27">
         <v>19500</v>
@@ -4127,10 +4215,10 @@
         <v>45202</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H27">
         <v>163.9</v>
@@ -4159,13 +4247,13 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s">
         <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D28">
         <v>19400</v>
@@ -4174,10 +4262,10 @@
         <v>45203</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H28">
         <v>121.75</v>
@@ -4206,13 +4294,13 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
         <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D29">
         <v>19400</v>
@@ -4221,10 +4309,10 @@
         <v>45203</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H29">
         <v>121.75</v>
@@ -4253,25 +4341,25 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B30" t="s">
         <v>19</v>
       </c>
       <c r="C30" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D30">
         <v>19500</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>45204</v>
       </c>
       <c r="F30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H30">
         <v>72.77</v>
@@ -4296,6 +4384,53 @@
       </c>
       <c r="O30">
         <v>148.27952479999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31">
+        <v>19600</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45205</v>
+      </c>
+      <c r="F31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31">
+        <v>188.65</v>
+      </c>
+      <c r="I31">
+        <v>184.7</v>
+      </c>
+      <c r="J31">
+        <v>8.65</v>
+      </c>
+      <c r="K31">
+        <v>6.2</v>
+      </c>
+      <c r="L31">
+        <v>1.5000000000000171</v>
+      </c>
+      <c r="M31">
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <v>150.00000000000171</v>
+      </c>
+      <c r="O31">
+        <v>165.38957619999999</v>
       </c>
     </row>
   </sheetData>
@@ -4305,7 +4440,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4313,25 +4448,25 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -4342,7 +4477,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4371,7 +4506,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4400,7 +4535,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -4429,7 +4564,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -4458,7 +4593,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4487,7 +4622,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4516,7 +4651,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4545,7 +4680,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4574,7 +4709,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -4603,7 +4738,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4632,7 +4767,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -4661,7 +4796,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -4690,7 +4825,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -4719,7 +4854,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -4744,6 +4879,35 @@
       </c>
       <c r="I15">
         <v>572.35771625999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>19569.099999999999</v>
+      </c>
+      <c r="D16">
+        <v>19617.12</v>
+      </c>
+      <c r="E16">
+        <v>47.25</v>
+      </c>
+      <c r="F16">
+        <v>30.05</v>
+      </c>
+      <c r="G16">
+        <v>30.820000000000441</v>
+      </c>
+      <c r="H16">
+        <v>3082.0000000000441</v>
+      </c>
+      <c r="I16">
+        <v>575.77183595600002</v>
       </c>
     </row>
   </sheetData>

--- a/UserProfile/excel/brijesh.xlsx
+++ b/UserProfile/excel/brijesh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Desktop/Main/TradeMan/UserProfile/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7678C5-B301-4F42-834E-3E1261F06AD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793B5CD6-5C17-0548-B970-75BCBA03195B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPWizard" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="133">
   <si>
     <t>Strategy</t>
   </si>
@@ -60,6 +60,12 @@
     <t>Tax</t>
   </si>
   <si>
+    <t>Option Type</t>
+  </si>
+  <si>
+    <t>Net PnL</t>
+  </si>
+  <si>
     <t>MPWizard</t>
   </si>
   <si>
@@ -300,34 +306,37 @@
     <t>13:44</t>
   </si>
   <si>
-    <t>19750</t>
-  </si>
-  <si>
     <t>10:33</t>
   </si>
   <si>
     <t>10:44</t>
   </si>
   <si>
-    <t>64.04</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>19600</t>
-  </si>
-  <si>
     <t>10:42</t>
   </si>
   <si>
     <t>11:20</t>
   </si>
   <si>
-    <t>109.56</t>
-  </si>
-  <si>
-    <t>111.00</t>
+    <t>13:07</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>95.65</t>
+  </si>
+  <si>
+    <t>121.15</t>
+  </si>
+  <si>
+    <t>42.4</t>
+  </si>
+  <si>
+    <t>47.16</t>
   </si>
   <si>
     <t>Trade Type</t>
@@ -409,6 +418,9 @@
   </si>
   <si>
     <t>BEARISH</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -778,15 +790,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -823,13 +838,19 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>44800</v>
@@ -838,10 +859,10 @@
         <v>45142</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <v>309.97000000000003</v>
@@ -859,12 +880,12 @@
         <v>-6373.9500000000089</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>19950</v>
@@ -873,10 +894,10 @@
         <v>45142</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3">
         <v>92</v>
@@ -894,12 +915,12 @@
         <v>-6313.9999999999973</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>19600</v>
@@ -908,10 +929,10 @@
         <v>45145</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>76.569999999999993</v>
@@ -929,12 +950,12 @@
         <v>-5974.4999999999973</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>45000</v>
@@ -943,10 +964,10 @@
         <v>45146</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5">
         <v>187.68</v>
@@ -967,12 +988,12 @@
         <v>53.014131210000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>20050</v>
@@ -981,10 +1002,10 @@
         <v>45146</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <v>59.15</v>
@@ -1005,12 +1026,12 @@
         <v>49.008285600000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>19500</v>
@@ -1019,10 +1040,10 @@
         <v>45147</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7">
         <v>49.55</v>
@@ -1043,12 +1064,12 @@
         <v>99.39560800000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>44600</v>
@@ -1057,10 +1078,10 @@
         <v>45147</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>209.3</v>
@@ -1081,12 +1102,12 @@
         <v>63.959771400000001</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>20050</v>
@@ -1095,10 +1116,10 @@
         <v>45148</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G9">
         <v>106.17</v>
@@ -1119,12 +1140,12 @@
         <v>57.472340160000002</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>19550</v>
@@ -1133,10 +1154,10 @@
         <v>45148</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>37.6</v>
@@ -1157,12 +1178,12 @@
         <v>39.450084999999987</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>19450</v>
@@ -1171,10 +1192,10 @@
         <v>45149</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>100.85</v>
@@ -1195,12 +1216,12 @@
         <v>87.80763128000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>44400</v>
@@ -1209,10 +1230,10 @@
         <v>45149</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>336.6</v>
@@ -1233,12 +1254,12 @@
         <v>63.278292779999987</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>19400</v>
@@ -1247,10 +1268,10 @@
         <v>45152</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>67.349999999999994</v>
@@ -1271,12 +1292,12 @@
         <v>57.3389989</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>44100</v>
@@ -1285,10 +1306,10 @@
         <v>45152</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G14">
         <v>185.36</v>
@@ -1309,12 +1330,12 @@
         <v>68.818115757000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15">
         <v>19400</v>
@@ -1323,10 +1344,10 @@
         <v>45154</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>50.05</v>
@@ -1347,12 +1368,12 @@
         <v>70.587840249999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>43900</v>
@@ -1361,10 +1382,10 @@
         <v>45154</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>144.4</v>
@@ -1387,10 +1408,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>44000</v>
@@ -1399,10 +1420,10 @@
         <v>45155</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>110.85</v>
@@ -1425,10 +1446,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>19600</v>
@@ -1437,10 +1458,10 @@
         <v>45155</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18">
         <v>105.83</v>
@@ -1463,10 +1484,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>19250</v>
@@ -1475,10 +1496,10 @@
         <v>45156</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19">
         <v>285.08999999999997</v>
@@ -1501,10 +1522,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>19250</v>
@@ -1513,10 +1534,10 @@
         <v>45156</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>103.95</v>
@@ -1539,10 +1560,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>19300</v>
@@ -1551,10 +1572,10 @@
         <v>45159</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G21">
         <v>78.92</v>
@@ -1577,10 +1598,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>44000</v>
@@ -1589,10 +1610,10 @@
         <v>45159</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G22">
         <v>194.27</v>
@@ -1615,10 +1636,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>19650</v>
@@ -1627,10 +1648,10 @@
         <v>45160</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>26.6</v>
@@ -1653,10 +1674,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>44000</v>
@@ -1665,10 +1686,10 @@
         <v>45160</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24">
         <v>153.32</v>
@@ -1691,10 +1712,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>44100</v>
@@ -1703,10 +1724,10 @@
         <v>45161</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G25">
         <v>144.44999999999999</v>
@@ -1729,10 +1750,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>19600</v>
@@ -1741,10 +1762,10 @@
         <v>45161</v>
       </c>
       <c r="E26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>114.21</v>
@@ -1767,10 +1788,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>45500</v>
@@ -1779,10 +1800,10 @@
         <v>45182</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G27">
         <v>117.2</v>
@@ -1805,10 +1826,10 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>20300</v>
@@ -1817,10 +1838,10 @@
         <v>45182</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G28">
         <v>112.13</v>
@@ -1843,10 +1864,10 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>20350</v>
@@ -1855,10 +1876,10 @@
         <v>45183</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G29">
         <v>109.79</v>
@@ -1881,10 +1902,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>45800</v>
@@ -1893,10 +1914,10 @@
         <v>45183</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G30">
         <v>355.58</v>
@@ -1919,10 +1940,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C31">
         <v>20500</v>
@@ -1931,10 +1952,10 @@
         <v>45184</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G31">
         <v>88.14</v>
@@ -1957,10 +1978,10 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>46200</v>
@@ -1969,10 +1990,10 @@
         <v>45184</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G32">
         <v>245.02</v>
@@ -1995,10 +2016,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>46200</v>
@@ -2007,10 +2028,10 @@
         <v>45187</v>
       </c>
       <c r="E33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G33">
         <v>161.31</v>
@@ -2033,10 +2054,10 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34">
         <v>20500</v>
@@ -2045,10 +2066,10 @@
         <v>45187</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34">
         <v>15.75</v>
@@ -2071,10 +2092,10 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35">
         <v>20200</v>
@@ -2083,10 +2104,10 @@
         <v>45189</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G35">
         <v>121.5</v>
@@ -2109,10 +2130,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C36">
         <v>20000</v>
@@ -2121,10 +2142,10 @@
         <v>45189</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G36">
         <v>50.62</v>
@@ -2147,10 +2168,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C37">
         <v>19750</v>
@@ -2159,10 +2180,10 @@
         <v>45190</v>
       </c>
       <c r="E37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G37">
         <v>8.8000000000000007</v>
@@ -2185,10 +2206,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>45000</v>
@@ -2197,10 +2218,10 @@
         <v>45190</v>
       </c>
       <c r="E38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G38">
         <v>318.10000000000002</v>
@@ -2223,10 +2244,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>45000</v>
@@ -2235,10 +2256,10 @@
         <v>45191</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G39">
         <v>276.16000000000003</v>
@@ -2261,10 +2282,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C40">
         <v>19800</v>
@@ -2273,10 +2294,10 @@
         <v>45191</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>85.75</v>
@@ -2299,10 +2320,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C41">
         <v>19600</v>
@@ -2311,10 +2332,10 @@
         <v>45194</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41">
         <v>108.9</v>
@@ -2337,10 +2358,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>44400</v>
@@ -2349,10 +2370,10 @@
         <v>45194</v>
       </c>
       <c r="E42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G42">
         <v>211.82</v>
@@ -2375,10 +2396,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C43">
         <v>19650</v>
@@ -2387,10 +2408,10 @@
         <v>45195</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G43">
         <v>66.34</v>
@@ -2413,10 +2434,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>44600</v>
@@ -2425,10 +2446,10 @@
         <v>45195</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G44">
         <v>216.55</v>
@@ -2451,10 +2472,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>19650</v>
@@ -2463,10 +2484,10 @@
         <v>45195</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G45">
         <v>66.34</v>
@@ -2489,10 +2510,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>44600</v>
@@ -2501,10 +2522,10 @@
         <v>45195</v>
       </c>
       <c r="E46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G46">
         <v>216.55</v>
@@ -2527,10 +2548,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>19550</v>
@@ -2539,10 +2560,10 @@
         <v>45196</v>
       </c>
       <c r="E47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G47">
         <v>58.7</v>
@@ -2565,10 +2586,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>44200</v>
@@ -2577,10 +2598,10 @@
         <v>45196</v>
       </c>
       <c r="E48" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>191.77</v>
@@ -2601,12 +2622,12 @@
         <v>50.185925699999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>44700</v>
@@ -2615,10 +2636,10 @@
         <v>45197</v>
       </c>
       <c r="E49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G49">
         <v>123.25</v>
@@ -2639,12 +2660,12 @@
         <v>80.169643199999996</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C50">
         <v>19650</v>
@@ -2653,10 +2674,10 @@
         <v>45197</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G50">
         <v>29.25</v>
@@ -2677,12 +2698,12 @@
         <v>37.580815000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51">
         <v>19800</v>
@@ -2691,10 +2712,10 @@
         <v>45198</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G51">
         <v>55.19</v>
@@ -2715,12 +2736,12 @@
         <v>83.420390992000009</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>44600</v>
@@ -2729,10 +2750,10 @@
         <v>45198</v>
       </c>
       <c r="E52" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G52">
         <v>229.7</v>
@@ -2753,12 +2774,12 @@
         <v>90.500471790000006</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C53">
         <v>44600</v>
@@ -2767,10 +2788,10 @@
         <v>45203</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G53">
         <v>117.52</v>
@@ -2791,12 +2812,12 @@
         <v>40.372258199999997</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>19800</v>
@@ -2805,10 +2826,10 @@
         <v>45203</v>
       </c>
       <c r="E54" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G54">
         <v>47.8</v>
@@ -2829,12 +2850,12 @@
         <v>46.304074999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C55">
         <v>43900</v>
@@ -2843,10 +2864,10 @@
         <v>45204</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G55">
         <v>73.650000000000006</v>
@@ -2867,12 +2888,12 @@
         <v>60.056419007999999</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C56">
         <v>19350</v>
@@ -2881,10 +2902,10 @@
         <v>45204</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G56">
         <v>17.95</v>
@@ -2905,30 +2926,30 @@
         <v>36.272326000000007</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="3">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <v>19750</v>
+      </c>
+      <c r="D57" s="2">
         <v>45205</v>
       </c>
       <c r="E57" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F57" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" t="s">
         <v>95</v>
       </c>
-      <c r="H57" t="s">
-        <v>96</v>
+      <c r="G57">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="H57">
+        <v>50</v>
       </c>
       <c r="I57">
         <v>-14.04000000000001</v>
@@ -2943,30 +2964,30 @@
         <v>70.293040000000005</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>19600</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45205</v>
+      </c>
+      <c r="E58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="3">
-        <v>45205</v>
-      </c>
-      <c r="E58" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" t="s">
-        <v>100</v>
-      </c>
-      <c r="H58" t="s">
-        <v>101</v>
+      <c r="G58">
+        <v>109.56</v>
+      </c>
+      <c r="H58">
+        <v>111</v>
       </c>
       <c r="I58">
         <v>1.4399999999999979</v>
@@ -2979,6 +3000,94 @@
       </c>
       <c r="L58">
         <v>112.469289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>19600</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45208</v>
+      </c>
+      <c r="E59" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" t="s">
+        <v>98</v>
+      </c>
+      <c r="G59" t="s">
+        <v>101</v>
+      </c>
+      <c r="H59" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59">
+        <v>25.5</v>
+      </c>
+      <c r="J59">
+        <v>300</v>
+      </c>
+      <c r="K59">
+        <v>7650</v>
+      </c>
+      <c r="L59">
+        <v>90.254912099999999</v>
+      </c>
+      <c r="M59" t="s">
+        <v>132</v>
+      </c>
+      <c r="N59">
+        <v>7559.7450878999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>19600</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45208</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60">
+        <v>4.759999999999998</v>
+      </c>
+      <c r="J60">
+        <v>320</v>
+      </c>
+      <c r="K60">
+        <v>1523.1999999999989</v>
+      </c>
+      <c r="L60">
+        <v>56.110351616000003</v>
+      </c>
+      <c r="M60" t="s">
+        <v>99</v>
+      </c>
+      <c r="N60">
+        <v>1467.089648383999</v>
       </c>
     </row>
   </sheetData>
@@ -2988,13 +3097,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3002,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3023,10 +3137,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -3040,16 +3154,19 @@
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>19500</v>
@@ -3058,10 +3175,10 @@
         <v>45142</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>210</v>
@@ -3079,15 +3196,15 @@
         <v>-1032.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D3">
         <v>19600</v>
@@ -3096,10 +3213,10 @@
         <v>45145</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H3">
         <v>171.25</v>
@@ -3117,15 +3234,15 @@
         <v>989.99999999999966</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>19600</v>
@@ -3134,10 +3251,10 @@
         <v>45146</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H4">
         <v>154.85</v>
@@ -3164,15 +3281,15 @@
         <v>150.07402400000001</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D5">
         <v>19500</v>
@@ -3181,10 +3298,10 @@
         <v>45147</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H5">
         <v>128.80000000000001</v>
@@ -3211,15 +3328,15 @@
         <v>152.370968</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <v>19600</v>
@@ -3228,10 +3345,10 @@
         <v>45148</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H6">
         <v>106.95</v>
@@ -3258,15 +3375,15 @@
         <v>145.47250435000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D7">
         <v>19500</v>
@@ -3275,10 +3392,10 @@
         <v>45149</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H7">
         <v>191.05</v>
@@ -3305,15 +3422,15 @@
         <v>152.56015310000001</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D8">
         <v>19300</v>
@@ -3322,10 +3439,10 @@
         <v>45152</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8">
         <v>173.5</v>
@@ -3352,15 +3469,15 @@
         <v>155.4024632</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D9">
         <v>19300</v>
@@ -3369,10 +3486,10 @@
         <v>45154</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <v>122.55</v>
@@ -3399,15 +3516,15 @@
         <v>153.13915455</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D10">
         <v>19400</v>
@@ -3416,10 +3533,10 @@
         <v>45155</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H10">
         <v>92.3</v>
@@ -3446,15 +3563,15 @@
         <v>143.01129885</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D11">
         <v>19300</v>
@@ -3463,10 +3580,10 @@
         <v>45156</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H11">
         <v>189.35</v>
@@ -3493,15 +3610,15 @@
         <v>153.23309029999999</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D12">
         <v>19300</v>
@@ -3510,10 +3627,10 @@
         <v>45159</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H12">
         <v>165.15</v>
@@ -3540,15 +3657,15 @@
         <v>152.00560300000001</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D13">
         <v>19400</v>
@@ -3557,10 +3674,10 @@
         <v>45160</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H13">
         <v>130.94999999999999</v>
@@ -3587,15 +3704,15 @@
         <v>149.02100189999999</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D14">
         <v>19400</v>
@@ -3604,10 +3721,10 @@
         <v>45161</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H14">
         <v>95.05</v>
@@ -3634,15 +3751,15 @@
         <v>154.09979659999999</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D15">
         <v>20000</v>
@@ -3651,10 +3768,10 @@
         <v>45182</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H15">
         <v>125.2</v>
@@ -3681,15 +3798,15 @@
         <v>160.27174919999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D16">
         <v>20100</v>
@@ -3698,10 +3815,10 @@
         <v>45183</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H16">
         <v>88.75</v>
@@ -3728,15 +3845,15 @@
         <v>145.12918175999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D17">
         <v>20200</v>
@@ -3745,10 +3862,10 @@
         <v>45184</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H17">
         <v>193.25</v>
@@ -3775,15 +3892,15 @@
         <v>164.90356600000001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D18">
         <v>20100</v>
@@ -3792,10 +3909,10 @@
         <v>45187</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H18">
         <v>171.37</v>
@@ -3822,15 +3939,15 @@
         <v>160.95940630000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D19">
         <v>20000</v>
@@ -3839,10 +3956,10 @@
         <v>45189</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H19">
         <v>131.30000000000001</v>
@@ -3869,15 +3986,15 @@
         <v>164.5264373</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D20">
         <v>19800</v>
@@ -3886,10 +4003,10 @@
         <v>45190</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H20">
         <v>75.05</v>
@@ -3916,15 +4033,15 @@
         <v>150.1425639</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D21">
         <v>19800</v>
@@ -3933,10 +4050,10 @@
         <v>45191</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H21">
         <v>201.75</v>
@@ -3963,15 +4080,15 @@
         <v>166.62578676000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D22">
         <v>19600</v>
@@ -3980,10 +4097,10 @@
         <v>45194</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H22">
         <v>197.15</v>
@@ -4010,15 +4127,15 @@
         <v>162.15573910000001</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D23">
         <v>19700</v>
@@ -4027,10 +4144,10 @@
         <v>45195</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H23">
         <v>139.32</v>
@@ -4057,15 +4174,15 @@
         <v>157.43894779999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D24">
         <v>19600</v>
@@ -4074,10 +4191,10 @@
         <v>45196</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H24">
         <v>119.02</v>
@@ -4104,15 +4221,15 @@
         <v>164.83249839999999</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D25">
         <v>19700</v>
@@ -4121,10 +4238,10 @@
         <v>45197</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H25">
         <v>77.099999999999994</v>
@@ -4151,15 +4268,15 @@
         <v>160.9489796</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D26">
         <v>19600</v>
@@ -4168,10 +4285,10 @@
         <v>45198</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <v>208.89</v>
@@ -4198,15 +4315,15 @@
         <v>165.22757279999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D27">
         <v>19500</v>
@@ -4215,10 +4332,10 @@
         <v>45202</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G27" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H27">
         <v>163.9</v>
@@ -4245,15 +4362,15 @@
         <v>159.02000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D28">
         <v>19400</v>
@@ -4262,10 +4379,10 @@
         <v>45203</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H28">
         <v>121.75</v>
@@ -4292,15 +4409,15 @@
         <v>154.311036</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D29">
         <v>19400</v>
@@ -4309,10 +4426,10 @@
         <v>45203</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H29">
         <v>121.75</v>
@@ -4339,15 +4456,15 @@
         <v>154.311036</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D30">
         <v>19500</v>
@@ -4356,10 +4473,10 @@
         <v>45204</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H30">
         <v>72.77</v>
@@ -4386,27 +4503,27 @@
         <v>148.27952479999999</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D31">
         <v>19600</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>45205</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H31">
         <v>188.65</v>
@@ -4431,6 +4548,56 @@
       </c>
       <c r="O31">
         <v>165.38957619999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32">
+        <v>19500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45208</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32">
+        <v>190.35</v>
+      </c>
+      <c r="I32">
+        <v>174.75</v>
+      </c>
+      <c r="J32">
+        <v>9.5</v>
+      </c>
+      <c r="K32">
+        <v>6.85</v>
+      </c>
+      <c r="L32">
+        <v>12.94999999999999</v>
+      </c>
+      <c r="M32">
+        <v>50</v>
+      </c>
+      <c r="N32">
+        <v>647.49999999999966</v>
+      </c>
+      <c r="O32">
+        <v>152.9153144</v>
+      </c>
+      <c r="P32">
+        <v>494.58468559999972</v>
       </c>
     </row>
   </sheetData>
@@ -4442,31 +4609,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>10</v>
@@ -4477,7 +4646,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -4506,7 +4675,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>100</v>
@@ -4535,7 +4704,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -4564,7 +4733,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -4593,7 +4762,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4622,7 +4791,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B7">
         <v>100</v>
@@ -4651,7 +4820,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>100</v>
@@ -4680,7 +4849,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>100</v>
@@ -4709,7 +4878,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>100</v>
@@ -4738,7 +4907,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B11">
         <v>100</v>
@@ -4767,7 +4936,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <v>100</v>
@@ -4796,7 +4965,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -4825,7 +4994,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B14">
         <v>100</v>
@@ -4854,7 +5023,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B15">
         <v>100</v>
@@ -4883,7 +5052,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B16">
         <v>100</v>

--- a/UserProfile/excel/brijesh.xlsx
+++ b/UserProfile/excel/brijesh.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AmiPy" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overnight_options" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,9 +20,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -61,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -518,7 +519,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -532,7 +532,7 @@
       <c r="D2" t="n">
         <v>44800</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="F2" t="inlineStr">
@@ -560,12 +560,8 @@
       <c r="L2" t="n">
         <v>-6373.950000000009</v>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -579,7 +575,7 @@
       <c r="D3" t="n">
         <v>19950</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="F3" t="inlineStr">
@@ -607,12 +603,8 @@
       <c r="L3" t="n">
         <v>-6313.999999999997</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -626,7 +618,7 @@
       <c r="D4" t="n">
         <v>19600</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="F4" t="inlineStr">
@@ -654,12 +646,8 @@
       <c r="L4" t="n">
         <v>-5974.499999999997</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -673,7 +661,7 @@
       <c r="D5" t="n">
         <v>45000</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="F5" t="inlineStr">
@@ -704,11 +692,8 @@
       <c r="M5" t="n">
         <v>53.01413121</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -722,7 +707,7 @@
       <c r="D6" t="n">
         <v>20050</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="F6" t="inlineStr">
@@ -753,11 +738,8 @@
       <c r="M6" t="n">
         <v>49.0082856</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -771,7 +753,7 @@
       <c r="D7" t="n">
         <v>19500</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="F7" t="inlineStr">
@@ -802,11 +784,8 @@
       <c r="M7" t="n">
         <v>99.39560800000001</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -820,7 +799,7 @@
       <c r="D8" t="n">
         <v>44600</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="F8" t="inlineStr">
@@ -851,11 +830,8 @@
       <c r="M8" t="n">
         <v>63.9597714</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -869,7 +845,7 @@
       <c r="D9" t="n">
         <v>20050</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="3" t="n">
         <v>45148</v>
       </c>
       <c r="F9" t="inlineStr">
@@ -900,11 +876,8 @@
       <c r="M9" t="n">
         <v>57.47234016</v>
       </c>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -918,7 +891,7 @@
       <c r="D10" t="n">
         <v>19550</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="3" t="n">
         <v>45148</v>
       </c>
       <c r="F10" t="inlineStr">
@@ -949,11 +922,8 @@
       <c r="M10" t="n">
         <v>39.45008499999999</v>
       </c>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -967,7 +937,7 @@
       <c r="D11" t="n">
         <v>19450</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="F11" t="inlineStr">
@@ -998,11 +968,8 @@
       <c r="M11" t="n">
         <v>87.80763128000001</v>
       </c>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1016,7 +983,7 @@
       <c r="D12" t="n">
         <v>44400</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="F12" t="inlineStr">
@@ -1047,11 +1014,8 @@
       <c r="M12" t="n">
         <v>63.27829277999999</v>
       </c>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1065,7 +1029,7 @@
       <c r="D13" t="n">
         <v>19400</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="F13" t="inlineStr">
@@ -1096,11 +1060,8 @@
       <c r="M13" t="n">
         <v>57.3389989</v>
       </c>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1114,7 +1075,7 @@
       <c r="D14" t="n">
         <v>44100</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="F14" t="inlineStr">
@@ -1145,11 +1106,8 @@
       <c r="M14" t="n">
         <v>68.818115757</v>
       </c>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1163,7 +1121,7 @@
       <c r="D15" t="n">
         <v>19400</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="F15" t="inlineStr">
@@ -1194,11 +1152,8 @@
       <c r="M15" t="n">
         <v>70.58784025</v>
       </c>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1212,7 +1167,7 @@
       <c r="D16" t="n">
         <v>43900</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="F16" t="inlineStr">
@@ -1243,11 +1198,8 @@
       <c r="M16" t="n">
         <v>48.5970462</v>
       </c>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1261,7 +1213,7 @@
       <c r="D17" t="n">
         <v>44000</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="F17" t="inlineStr">
@@ -1292,11 +1244,8 @@
       <c r="M17" t="n">
         <v>37.4375043</v>
       </c>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1310,7 +1259,7 @@
       <c r="D18" t="n">
         <v>19600</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="F18" t="inlineStr">
@@ -1341,11 +1290,8 @@
       <c r="M18" t="n">
         <v>68.04243892000001</v>
       </c>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1359,7 +1305,7 @@
       <c r="D19" t="n">
         <v>19250</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="F19" t="inlineStr">
@@ -1390,11 +1336,8 @@
       <c r="M19" t="n">
         <v>86.804925</v>
       </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1408,7 +1351,7 @@
       <c r="D20" t="n">
         <v>19250</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="F20" t="inlineStr">
@@ -1439,11 +1382,8 @@
       <c r="M20" t="n">
         <v>95.92851413999999</v>
       </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1457,7 +1397,7 @@
       <c r="D21" t="n">
         <v>19300</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="3" t="n">
         <v>45159</v>
       </c>
       <c r="F21" t="inlineStr">
@@ -1488,11 +1428,8 @@
       <c r="M21" t="n">
         <v>100.470082</v>
       </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1506,7 +1443,7 @@
       <c r="D22" t="n">
         <v>44000</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="3" t="n">
         <v>45159</v>
       </c>
       <c r="F22" t="inlineStr">
@@ -1537,11 +1474,8 @@
       <c r="M22" t="n">
         <v>77.42745210000002</v>
       </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1555,7 +1489,7 @@
       <c r="D23" t="n">
         <v>19650</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="F23" t="inlineStr">
@@ -1586,11 +1520,8 @@
       <c r="M23" t="n">
         <v>38.05187103999999</v>
       </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1604,7 +1535,7 @@
       <c r="D24" t="n">
         <v>44000</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="F24" t="inlineStr">
@@ -1635,11 +1566,8 @@
       <c r="M24" t="n">
         <v>53.709686577</v>
       </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1653,7 +1581,7 @@
       <c r="D25" t="n">
         <v>44100</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="F25" t="inlineStr">
@@ -1684,11 +1612,8 @@
       <c r="M25" t="n">
         <v>105.39489018</v>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1702,7 +1627,7 @@
       <c r="D26" t="n">
         <v>19600</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="F26" t="inlineStr">
@@ -1733,11 +1658,8 @@
       <c r="M26" t="n">
         <v>131.8984128</v>
       </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1751,7 +1673,7 @@
       <c r="D27" t="n">
         <v>45500</v>
       </c>
-      <c r="E27" s="2" t="n">
+      <c r="E27" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="F27" t="inlineStr">
@@ -1782,11 +1704,8 @@
       <c r="M27" t="n">
         <v>124.0707633</v>
       </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1800,7 +1719,7 @@
       <c r="D28" t="n">
         <v>20300</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="F28" t="inlineStr">
@@ -1831,11 +1750,8 @@
       <c r="M28" t="n">
         <v>119.73522</v>
       </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1849,7 +1765,7 @@
       <c r="D29" t="n">
         <v>20350</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="F29" t="inlineStr">
@@ -1880,11 +1796,8 @@
       <c r="M29" t="n">
         <v>73.88303534400001</v>
       </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1898,7 +1811,7 @@
       <c r="D30" t="n">
         <v>45800</v>
       </c>
-      <c r="E30" s="2" t="n">
+      <c r="E30" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="F30" t="inlineStr">
@@ -1929,11 +1842,8 @@
       <c r="M30" t="n">
         <v>70.61704680000001</v>
       </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1947,7 +1857,7 @@
       <c r="D31" t="n">
         <v>20500</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="F31" t="inlineStr">
@@ -1978,11 +1888,8 @@
       <c r="M31" t="n">
         <v>135.915015</v>
       </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -1996,7 +1903,7 @@
       <c r="D32" t="n">
         <v>46200</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="F32" t="inlineStr">
@@ -2027,11 +1934,8 @@
       <c r="M32" t="n">
         <v>115.3228575</v>
       </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2045,7 +1949,7 @@
       <c r="D33" t="n">
         <v>46200</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="F33" t="inlineStr">
@@ -2076,11 +1980,8 @@
       <c r="M33" t="n">
         <v>68.65281788400002</v>
       </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2094,7 +1995,7 @@
       <c r="D34" t="n">
         <v>20500</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="F34" t="inlineStr">
@@ -2125,11 +2026,8 @@
       <c r="M34" t="n">
         <v>36.6960272</v>
       </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2143,7 +2041,7 @@
       <c r="D35" t="n">
         <v>20200</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="F35" t="inlineStr">
@@ -2174,11 +2072,8 @@
       <c r="M35" t="n">
         <v>100.754314536</v>
       </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2192,7 +2087,7 @@
       <c r="D36" t="n">
         <v>20000</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="F36" t="inlineStr">
@@ -2223,11 +2118,8 @@
       <c r="M36" t="n">
         <v>47.61256399999999</v>
       </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2241,7 +2133,7 @@
       <c r="D37" t="n">
         <v>19750</v>
       </c>
-      <c r="E37" s="2" t="n">
+      <c r="E37" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="F37" t="inlineStr">
@@ -2272,11 +2164,8 @@
       <c r="M37" t="n">
         <v>36.27232600000001</v>
       </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2290,7 +2179,7 @@
       <c r="D38" t="n">
         <v>45000</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="F38" t="inlineStr">
@@ -2321,11 +2210,8 @@
       <c r="M38" t="n">
         <v>94.30633830000001</v>
       </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2339,7 +2225,7 @@
       <c r="D39" t="n">
         <v>45000</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="F39" t="inlineStr">
@@ -2370,11 +2256,8 @@
       <c r="M39" t="n">
         <v>123.4139475</v>
       </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2388,7 +2271,7 @@
       <c r="D40" t="n">
         <v>19800</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="F40" t="inlineStr">
@@ -2419,11 +2302,8 @@
       <c r="M40" t="n">
         <v>99.89038799999999</v>
       </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2437,7 +2317,7 @@
       <c r="D41" t="n">
         <v>19600</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="F41" t="inlineStr">
@@ -2468,11 +2348,8 @@
       <c r="M41" t="n">
         <v>104.4776292</v>
       </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2486,7 +2363,7 @@
       <c r="D42" t="n">
         <v>44400</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="F42" t="inlineStr">
@@ -2517,11 +2394,8 @@
       <c r="M42" t="n">
         <v>71.95170558</v>
       </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2535,7 +2409,7 @@
       <c r="D43" t="n">
         <v>19650</v>
       </c>
-      <c r="E43" s="2" t="n">
+      <c r="E43" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="F43" t="inlineStr">
@@ -2566,11 +2440,8 @@
       <c r="M43" t="n">
         <v>58.329712</v>
       </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2584,7 +2455,7 @@
       <c r="D44" t="n">
         <v>44600</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="F44" t="inlineStr">
@@ -2615,11 +2486,8 @@
       <c r="M44" t="n">
         <v>61.06918949400001</v>
       </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2633,7 +2501,7 @@
       <c r="D45" t="n">
         <v>19650</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="F45" t="inlineStr">
@@ -2664,11 +2532,8 @@
       <c r="M45" t="n">
         <v>58.329712</v>
       </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2682,7 +2547,7 @@
       <c r="D46" t="n">
         <v>44600</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="F46" t="inlineStr">
@@ -2713,11 +2578,8 @@
       <c r="M46" t="n">
         <v>61.06918949400001</v>
       </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2731,7 +2593,7 @@
       <c r="D47" t="n">
         <v>19550</v>
       </c>
-      <c r="E47" s="2" t="n">
+      <c r="E47" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="F47" t="inlineStr">
@@ -2762,11 +2624,8 @@
       <c r="M47" t="n">
         <v>133.31585461</v>
       </c>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2780,7 +2639,7 @@
       <c r="D48" t="n">
         <v>44200</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="F48" t="inlineStr">
@@ -2811,11 +2670,8 @@
       <c r="M48" t="n">
         <v>50.1859257</v>
       </c>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2829,7 +2685,7 @@
       <c r="D49" t="n">
         <v>44700</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="3" t="n">
         <v>45197</v>
       </c>
       <c r="F49" t="inlineStr">
@@ -2860,11 +2716,8 @@
       <c r="M49" t="n">
         <v>80.1696432</v>
       </c>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2878,7 +2731,7 @@
       <c r="D50" t="n">
         <v>19650</v>
       </c>
-      <c r="E50" s="2" t="n">
+      <c r="E50" s="3" t="n">
         <v>45197</v>
       </c>
       <c r="F50" t="inlineStr">
@@ -2909,11 +2762,8 @@
       <c r="M50" t="n">
         <v>37.580815</v>
       </c>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2927,7 +2777,7 @@
       <c r="D51" t="n">
         <v>19800</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="F51" t="inlineStr">
@@ -2958,11 +2808,8 @@
       <c r="M51" t="n">
         <v>83.42039099200001</v>
       </c>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -2976,7 +2823,7 @@
       <c r="D52" t="n">
         <v>44600</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="F52" t="inlineStr">
@@ -3007,11 +2854,8 @@
       <c r="M52" t="n">
         <v>90.50047179000001</v>
       </c>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3025,7 +2869,7 @@
       <c r="D53" t="n">
         <v>44600</v>
       </c>
-      <c r="E53" s="2" t="n">
+      <c r="E53" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="F53" t="inlineStr">
@@ -3056,11 +2900,8 @@
       <c r="M53" t="n">
         <v>40.3722582</v>
       </c>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3074,7 +2915,7 @@
       <c r="D54" t="n">
         <v>19800</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="F54" t="inlineStr">
@@ -3105,11 +2946,8 @@
       <c r="M54" t="n">
         <v>46.304075</v>
       </c>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3123,7 +2961,7 @@
       <c r="D55" t="n">
         <v>43900</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="3" t="n">
         <v>45204</v>
       </c>
       <c r="F55" t="inlineStr">
@@ -3154,11 +2992,8 @@
       <c r="M55" t="n">
         <v>60.056419008</v>
       </c>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3172,7 +3007,7 @@
       <c r="D56" t="n">
         <v>19350</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="3" t="n">
         <v>45204</v>
       </c>
       <c r="F56" t="inlineStr">
@@ -3203,11 +3038,8 @@
       <c r="M56" t="n">
         <v>36.27232600000001</v>
       </c>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3221,7 +3053,7 @@
       <c r="D57" t="n">
         <v>19750</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="F57" t="inlineStr">
@@ -3252,11 +3084,8 @@
       <c r="M57" t="n">
         <v>70.29304</v>
       </c>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3270,7 +3099,7 @@
       <c r="D58" t="n">
         <v>19600</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="F58" t="inlineStr">
@@ -3301,8 +3130,6 @@
       <c r="M58" t="n">
         <v>112.469289</v>
       </c>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3323,7 +3150,7 @@
       <c r="D59" t="n">
         <v>19600</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="F59" t="inlineStr">
@@ -3382,7 +3209,7 @@
       <c r="D60" t="n">
         <v>19600</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="F60" t="inlineStr">
@@ -3423,7 +3250,6 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3486,7 +3312,6 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
           <t>MPWizard</t>
@@ -3655,7 +3480,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -3674,7 +3498,7 @@
       <c r="E2" t="n">
         <v>19500</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>45142</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -3693,8 +3517,6 @@
       <c r="J2" t="n">
         <v>192.15</v>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>-20.65</v>
       </c>
@@ -3704,11 +3526,8 @@
       <c r="O2" t="n">
         <v>-1032.5</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -3727,7 +3546,7 @@
       <c r="E3" t="n">
         <v>19600</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="3" t="n">
         <v>45145</v>
       </c>
       <c r="G3" t="inlineStr">
@@ -3746,8 +3565,6 @@
       <c r="J3" t="n">
         <v>148.4</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>19.79999999999999</v>
       </c>
@@ -3757,11 +3574,8 @@
       <c r="O3" t="n">
         <v>989.9999999999997</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -3780,7 +3594,7 @@
       <c r="E4" t="n">
         <v>19600</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>45146</v>
       </c>
       <c r="G4" t="inlineStr">
@@ -3817,10 +3631,8 @@
       <c r="P4" t="n">
         <v>150.074024</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -3839,7 +3651,7 @@
       <c r="E5" t="n">
         <v>19500</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>45147</v>
       </c>
       <c r="G5" t="inlineStr">
@@ -3876,10 +3688,8 @@
       <c r="P5" t="n">
         <v>152.370968</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -3898,7 +3708,7 @@
       <c r="E6" t="n">
         <v>19600</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>45148</v>
       </c>
       <c r="G6" t="inlineStr">
@@ -3935,10 +3745,8 @@
       <c r="P6" t="n">
         <v>145.47250435</v>
       </c>
-      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -3957,7 +3765,7 @@
       <c r="E7" t="n">
         <v>19500</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="3" t="n">
         <v>45149</v>
       </c>
       <c r="G7" t="inlineStr">
@@ -3994,10 +3802,8 @@
       <c r="P7" t="n">
         <v>152.5601531</v>
       </c>
-      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4016,7 +3822,7 @@
       <c r="E8" t="n">
         <v>19300</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="3" t="n">
         <v>45152</v>
       </c>
       <c r="G8" t="inlineStr">
@@ -4053,10 +3859,8 @@
       <c r="P8" t="n">
         <v>155.4024632</v>
       </c>
-      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4075,7 +3879,7 @@
       <c r="E9" t="n">
         <v>19300</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="3" t="n">
         <v>45154</v>
       </c>
       <c r="G9" t="inlineStr">
@@ -4112,10 +3916,8 @@
       <c r="P9" t="n">
         <v>153.13915455</v>
       </c>
-      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4134,7 +3936,7 @@
       <c r="E10" t="n">
         <v>19400</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="F10" s="3" t="n">
         <v>45155</v>
       </c>
       <c r="G10" t="inlineStr">
@@ -4171,10 +3973,8 @@
       <c r="P10" t="n">
         <v>143.01129885</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4193,7 +3993,7 @@
       <c r="E11" t="n">
         <v>19300</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="3" t="n">
         <v>45156</v>
       </c>
       <c r="G11" t="inlineStr">
@@ -4230,10 +4030,8 @@
       <c r="P11" t="n">
         <v>153.2330903</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4252,7 +4050,7 @@
       <c r="E12" t="n">
         <v>19300</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="3" t="n">
         <v>45159</v>
       </c>
       <c r="G12" t="inlineStr">
@@ -4289,10 +4087,8 @@
       <c r="P12" t="n">
         <v>152.005603</v>
       </c>
-      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4311,7 +4107,7 @@
       <c r="E13" t="n">
         <v>19400</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="F13" s="3" t="n">
         <v>45160</v>
       </c>
       <c r="G13" t="inlineStr">
@@ -4348,10 +4144,8 @@
       <c r="P13" t="n">
         <v>149.0210019</v>
       </c>
-      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4370,7 +4164,7 @@
       <c r="E14" t="n">
         <v>19400</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="3" t="n">
         <v>45161</v>
       </c>
       <c r="G14" t="inlineStr">
@@ -4407,10 +4201,8 @@
       <c r="P14" t="n">
         <v>154.0997966</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4429,7 +4221,7 @@
       <c r="E15" t="n">
         <v>20000</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="3" t="n">
         <v>45182</v>
       </c>
       <c r="G15" t="inlineStr">
@@ -4466,10 +4258,8 @@
       <c r="P15" t="n">
         <v>160.2717492</v>
       </c>
-      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4488,7 +4278,7 @@
       <c r="E16" t="n">
         <v>20100</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>45183</v>
       </c>
       <c r="G16" t="inlineStr">
@@ -4525,10 +4315,8 @@
       <c r="P16" t="n">
         <v>145.12918176</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4547,7 +4335,7 @@
       <c r="E17" t="n">
         <v>20200</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>45184</v>
       </c>
       <c r="G17" t="inlineStr">
@@ -4584,10 +4372,8 @@
       <c r="P17" t="n">
         <v>164.903566</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4606,7 +4392,7 @@
       <c r="E18" t="n">
         <v>20100</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="3" t="n">
         <v>45187</v>
       </c>
       <c r="G18" t="inlineStr">
@@ -4643,10 +4429,8 @@
       <c r="P18" t="n">
         <v>160.9594063</v>
       </c>
-      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4665,7 +4449,7 @@
       <c r="E19" t="n">
         <v>20000</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="3" t="n">
         <v>45189</v>
       </c>
       <c r="G19" t="inlineStr">
@@ -4702,10 +4486,8 @@
       <c r="P19" t="n">
         <v>164.5264373</v>
       </c>
-      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4724,7 +4506,7 @@
       <c r="E20" t="n">
         <v>19800</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="3" t="n">
         <v>45190</v>
       </c>
       <c r="G20" t="inlineStr">
@@ -4761,10 +4543,8 @@
       <c r="P20" t="n">
         <v>150.1425639</v>
       </c>
-      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4783,7 +4563,7 @@
       <c r="E21" t="n">
         <v>19800</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="3" t="n">
         <v>45191</v>
       </c>
       <c r="G21" t="inlineStr">
@@ -4820,10 +4600,8 @@
       <c r="P21" t="n">
         <v>166.62578676</v>
       </c>
-      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4842,7 +4620,7 @@
       <c r="E22" t="n">
         <v>19600</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="3" t="n">
         <v>45194</v>
       </c>
       <c r="G22" t="inlineStr">
@@ -4879,10 +4657,8 @@
       <c r="P22" t="n">
         <v>162.1557391</v>
       </c>
-      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4901,7 +4677,7 @@
       <c r="E23" t="n">
         <v>19700</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="3" t="n">
         <v>45195</v>
       </c>
       <c r="G23" t="inlineStr">
@@ -4938,10 +4714,8 @@
       <c r="P23" t="n">
         <v>157.4389478</v>
       </c>
-      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -4960,7 +4734,7 @@
       <c r="E24" t="n">
         <v>19600</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="3" t="n">
         <v>45196</v>
       </c>
       <c r="G24" t="inlineStr">
@@ -4997,10 +4771,8 @@
       <c r="P24" t="n">
         <v>164.8324984</v>
       </c>
-      <c r="Q24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5019,7 +4791,7 @@
       <c r="E25" t="n">
         <v>19700</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="3" t="n">
         <v>45197</v>
       </c>
       <c r="G25" t="inlineStr">
@@ -5056,10 +4828,8 @@
       <c r="P25" t="n">
         <v>160.9489796</v>
       </c>
-      <c r="Q25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5078,7 +4848,7 @@
       <c r="E26" t="n">
         <v>19600</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="3" t="n">
         <v>45198</v>
       </c>
       <c r="G26" t="inlineStr">
@@ -5115,10 +4885,8 @@
       <c r="P26" t="n">
         <v>165.2275728</v>
       </c>
-      <c r="Q26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5137,7 +4905,7 @@
       <c r="E27" t="n">
         <v>19500</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="F27" s="3" t="n">
         <v>45202</v>
       </c>
       <c r="G27" t="inlineStr">
@@ -5174,10 +4942,8 @@
       <c r="P27" t="n">
         <v>159.02</v>
       </c>
-      <c r="Q27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5196,7 +4962,7 @@
       <c r="E28" t="n">
         <v>19400</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="G28" t="inlineStr">
@@ -5233,10 +4999,8 @@
       <c r="P28" t="n">
         <v>154.311036</v>
       </c>
-      <c r="Q28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5255,7 +5019,7 @@
       <c r="E29" t="n">
         <v>19400</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="3" t="n">
         <v>45203</v>
       </c>
       <c r="G29" t="inlineStr">
@@ -5292,10 +5056,8 @@
       <c r="P29" t="n">
         <v>154.311036</v>
       </c>
-      <c r="Q29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5314,7 +5076,7 @@
       <c r="E30" t="n">
         <v>19500</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="3" t="n">
         <v>45204</v>
       </c>
       <c r="G30" t="inlineStr">
@@ -5351,10 +5113,8 @@
       <c r="P30" t="n">
         <v>148.2795248</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5373,7 +5133,7 @@
       <c r="E31" t="n">
         <v>19600</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="3" t="n">
         <v>45205</v>
       </c>
       <c r="G31" t="inlineStr">
@@ -5410,7 +5170,6 @@
       <c r="P31" t="n">
         <v>165.3895762</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5436,7 +5195,7 @@
       <c r="E32" t="n">
         <v>19500</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="3" t="n">
         <v>45208</v>
       </c>
       <c r="G32" t="inlineStr">
@@ -5478,7 +5237,6 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>Nifty Straddle</t>
@@ -5661,11 +5419,6 @@
       <c r="I2" t="n">
         <v>570.0298522400001</v>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -5697,11 +5450,6 @@
       <c r="I3" t="n">
         <v>570.2067703299999</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -5733,11 +5481,6 @@
       <c r="I4" t="n">
         <v>581.7200798899999</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -5769,11 +5512,6 @@
       <c r="I5" t="n">
         <v>580.573851836</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5805,11 +5543,6 @@
       <c r="I6" t="n">
         <v>584.2775801600001</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5841,11 +5574,6 @@
       <c r="I7" t="n">
         <v>575.8502718899999</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -5877,11 +5605,6 @@
       <c r="I8" t="n">
         <v>581.0266835</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -5913,11 +5636,6 @@
       <c r="I9" t="n">
         <v>575.5030390460001</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5949,11 +5667,6 @@
       <c r="I10" t="n">
         <v>575.5030390460001</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5985,11 +5698,6 @@
       <c r="I11" t="n">
         <v>574.9592308700001</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -6021,11 +5729,6 @@
       <c r="I12" t="n">
         <v>573.70882309</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6057,11 +5760,6 @@
       <c r="I13" t="n">
         <v>570.090607546</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6093,11 +5791,6 @@
       <c r="I14" t="n">
         <v>570.090607546</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -6129,11 +5822,6 @@
       <c r="I15" t="n">
         <v>572.35771626</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -6165,11 +5853,6 @@
       <c r="I16" t="n">
         <v>575.771835956</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -6246,4 +5929,2986 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sl NO</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Trade ID</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Details</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Running Balance</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01-Jul-23</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Opening Balance</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>₹ 0.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>₹ 0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>04-Aug-23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>04-Aug-23</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04-Aug-23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>07-Aug-23</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>07-Aug-23</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>08-Aug-23</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08-Aug-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>08-Aug-23</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>09-Aug-23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>09-Aug-23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>09-Aug-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10-Aug-23</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10-Aug-23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>10-Aug-23</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>11-Aug-23</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11-Aug-23</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11-Aug-23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14-Aug-23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14-Aug-23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>14-Aug-23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16-Aug-23</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16-Aug-23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16-Aug-23</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>17-Aug-23</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17-Aug-23</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>17-Aug-23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>18-Aug-23</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>18-Aug-23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>18-Aug-23</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>21-Aug-23</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>21-Aug-23</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>21-Aug-23</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>22-Aug-23</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>22-Aug-23</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>22-Aug-23</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>23-Aug-23</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>23-Aug-23</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>23-Aug-23</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>13-Sep-23</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>13-Sep-23</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>13-Sep-23</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>14-Sep-23</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>14-Sep-23</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>14-Sep-23</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>15-Sep-23</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>15-Sep-23</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>15-Sep-23</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>18-Sep-23</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>18-Sep-23</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>18-Sep-23</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>20-Sep-23</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>20-Sep-23</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>20-Sep-23</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>21-Sep-23</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>21-Sep-23</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>21-Sep-23</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>22-Sep-23</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>22-Sep-23</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>22-Sep-23</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>25-Sep-23</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>25-Sep-23</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>25-Sep-23</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>26-Sep-23</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>26-Sep-23</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>26-Sep-23</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>26-Sep-23</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>26-Sep-23</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>27-Sep-23</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>27-Sep-23</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>27-Sep-23</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>28-Sep-23</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>28-Sep-23</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>28-Sep-23</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>29-Sep-23</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>29-Sep-23</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>29-Sep-23</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>03-Oct-23</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>04-Oct-23</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>04-Oct-23</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>04-Oct-23</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>04-Oct-23</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>05-Oct-23</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>05-Oct-23</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>05-Oct-23</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>06-Oct-23</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>06-Oct-23</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>06-Oct-23</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MP58</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>₹ 7,559.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MP59</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>₹ 1,467.09</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>09-Oct-23</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>AP31</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>₹ 494.58</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>-₹ 4,904.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>MP Wizard</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>-₹ 4,814.29</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>10-Oct-23</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>-₹ 1,184.40</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>₹ NaN.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/UserProfile/excel/brijesh.xlsx
+++ b/UserProfile/excel/brijesh.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="27180" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,6 +43,11 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -54,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -67,6 +72,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -113,10 +133,10 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,7 +511,7 @@
       <selection activeCell="K25" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
@@ -508,8 +528,8 @@
     <row r="2">
       <c r="A2" s="2" t="n"/>
       <c r="B2" s="2" t="n"/>
-      <c r="C2" s="7" t="n"/>
-      <c r="D2" s="7" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="n"/>
@@ -520,7 +540,7 @@
     <row r="3">
       <c r="A3" s="2" t="n"/>
       <c r="B3" s="2" t="n"/>
-      <c r="C3" s="7" t="n"/>
+      <c r="C3" s="3" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
@@ -532,8 +552,8 @@
     <row r="4">
       <c r="A4" s="2" t="n"/>
       <c r="B4" s="2" t="n"/>
-      <c r="C4" s="7" t="n"/>
-      <c r="D4" s="7" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="n"/>
@@ -544,7 +564,7 @@
     <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="2" t="n"/>
-      <c r="C5" s="7" t="n"/>
+      <c r="C5" s="3" t="n"/>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -570,11 +590,12 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="3"/>
+    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
     <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.83203125" customWidth="1" style="2" min="6" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
+    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -665,10 +686,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="3" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="3" t="n">
         <v>45229.44861111111</v>
       </c>
       <c r="F2" s="6" t="n">
@@ -715,10 +736,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="3" t="n">
         <v>45229.47986111111</v>
       </c>
       <c r="F3" s="6" t="n">
@@ -765,10 +786,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="3" t="n">
         <v>45230.5125</v>
       </c>
       <c r="F4" s="6" t="n">
@@ -815,10 +836,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="3" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="3" t="n">
         <v>45230.54861111111</v>
       </c>
       <c r="F5" s="6" t="n">
@@ -865,10 +886,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="3" t="n">
         <v>45231.46875</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="3" t="n">
         <v>45231.51875</v>
       </c>
       <c r="F6" s="6" t="n">
@@ -915,10 +936,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="3" t="n">
         <v>45231.46944444445</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="3" t="n">
         <v>45231.62569444445</v>
       </c>
       <c r="F7" s="6" t="n">
@@ -965,10 +986,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="3" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="3" t="n">
         <v>45232.61944444444</v>
       </c>
       <c r="F8" s="6" t="n">
@@ -1015,10 +1036,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="3" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="3" t="n">
         <v>45232.59444444445</v>
       </c>
       <c r="F9" s="6" t="n">
@@ -1170,15 +1191,16 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="3"/>
+    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
     <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.83203125" customWidth="1" style="2" min="6" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
+    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1269,10 +1291,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="3" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="3" t="n">
         <v>45229.62222222222</v>
       </c>
       <c r="F2" s="6" t="n">
@@ -1319,10 +1341,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>45230.39375</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="3" t="n">
         <v>45230.62222222222</v>
       </c>
       <c r="F3" s="6" t="n">
@@ -1369,10 +1391,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>45231.40347222222</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="3" t="n">
         <v>45231.61458333334</v>
       </c>
       <c r="F4" s="6" t="n">
@@ -1419,10 +1441,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="3" t="n">
         <v>45232.38958333333</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="3" t="n">
         <v>45232.62222222222</v>
       </c>
       <c r="F5" s="6" t="n">
@@ -1524,11 +1546,16 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col width="8.83203125" customWidth="1" style="2" min="1" max="3"/>
+    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
     <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.83203125" customWidth="1" style="2" min="6" max="16384"/>
+    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
+    <col width="8.77734375" customWidth="1" style="2" min="7" max="11"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
+    <col width="8.77734375" customWidth="1" style="2" min="13" max="13"/>
+    <col width="9.21875" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
+    <col width="8.77734375" customWidth="1" style="2" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1619,10 +1646,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="3" t="n">
         <v>45229.63541666666</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="3" t="n">
         <v>45230.3875</v>
       </c>
       <c r="F2" s="6" t="n">
@@ -1669,10 +1696,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>45230.63541666666</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="3" t="n">
         <v>45231.3875</v>
       </c>
       <c r="F3" s="6" t="n">
@@ -1719,10 +1746,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>44937.63541666666</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="3" t="n">
         <v>45232.3875</v>
       </c>
       <c r="F4" s="6" t="n">
@@ -1824,7 +1851,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1914,10 +1941,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="3" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E2" s="7" t="n">
+      <c r="E2" s="3" t="n">
         <v>45229.38958333333</v>
       </c>
       <c r="F2" s="4" t="n">
@@ -1964,10 +1991,10 @@
           <t>Short</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="3" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="3" t="n">
         <v>45229.38958333333</v>
       </c>
       <c r="F3" s="4" t="n">
@@ -2014,10 +2041,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
       <c r="F4" s="4" t="n">
@@ -2064,10 +2091,10 @@
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="3" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="3" t="n">
         <v>45231.46666666667</v>
       </c>
       <c r="F5" s="4" t="n">
@@ -2852,7 +2879,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2881,13 +2908,13 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>₹ 5,46,350.58</t>
+          <t>₹ 5,25,538.69</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2916,13 +2943,13 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>₹ 5,38,193.01</t>
+          <t>₹ 5,17,381.12</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2951,13 +2978,13 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>₹ 5,41,001.94</t>
+          <t>₹ 5,20,190.05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2986,7 +3013,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>₹ 5,50,242.13</t>
+          <t>₹ 5,29,430.24</t>
         </is>
       </c>
     </row>

--- a/UserProfile/excel/brijesh.xlsx
+++ b/UserProfile/excel/brijesh.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,16 +15,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTD" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,22 +32,7 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
+    <font/>
     <font>
       <b val="1"/>
     </font>
@@ -59,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,43 +53,7 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin"/>
       <right style="thin"/>
@@ -112,37 +62,36 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="number_style" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="number_style" xfId="1" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -505,73 +454,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="n"/>
-      <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
-      <c r="H1" s="1" t="n"/>
-      <c r="I1" s="1" t="n"/>
-      <c r="J1" s="1" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="2" t="n"/>
-      <c r="F2" s="2" t="n"/>
-      <c r="G2" s="2" t="n"/>
-      <c r="H2" s="2" t="n"/>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n"/>
-      <c r="B3" s="2" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="2" t="n"/>
-      <c r="C4" s="3" t="n"/>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
-      <c r="G4" s="2" t="n"/>
-      <c r="H4" s="2" t="n"/>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -584,598 +476,838 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>MP157</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>FINNIFTY31OCT23P19150</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.43819444445</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.44861111111</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>73</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>72.51000000000001</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-0.49</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>480</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>-235.2</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>78.77</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>-313.97</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>MP158</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45229.45</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.47986111111</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>93.75</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="H3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>-17.35</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>450</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>-7807.5</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>78.23999999999999</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>-7885.74</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>MP159</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P43000</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45230.5125</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>186.5</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>186</v>
       </c>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>-0.5</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>-60</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>63.21</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-123.21</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>MP160</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45230.43263888889</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45230.54861111111</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>67.2</v>
       </c>
-      <c r="H5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>-20.4</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>-8160</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>-8228.9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>MP161</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="6" t="n">
         <v>45231.46875</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="6" t="n">
         <v>45231.51875</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>110</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6" t="n">
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="n">
         <v>-26.4</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>-10560</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>77.06999999999999</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="5" t="n">
         <v>-10637.07</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>MP162</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="6" t="n">
         <v>45231.46944444445</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="6" t="n">
         <v>45231.62569444445</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>52.7</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6" t="n">
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
         <v>-50.7</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="L7" s="6" t="n">
+      <c r="L7" s="5" t="n">
         <v>-6084</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <v>35.7</v>
       </c>
-      <c r="N7" s="6" t="n">
+      <c r="N7" s="5" t="n">
         <v>-6119.7</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>MP163</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="6" t="n">
         <v>45232.48402777778</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="6" t="n">
         <v>45232.61944444444</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>24.05</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6" t="n">
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
         <v>-22.05</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="L8" s="6" t="n">
+      <c r="L8" s="5" t="n">
         <v>-6615</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="5" t="n">
         <v>36.15</v>
       </c>
-      <c r="N8" s="6" t="n">
+      <c r="N8" s="5" t="n">
         <v>-6651.15</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>MP164</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23P43000</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="6" t="n">
         <v>45232.4875</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="6" t="n">
         <v>45232.59444444445</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5" t="n">
         <v>291.45</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="5" t="n">
         <v>246</v>
       </c>
-      <c r="H9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6" t="n">
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
         <v>-45.45</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="L9" s="6" t="n">
+      <c r="L9" s="5" t="n">
         <v>-4090.5</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="5" t="n">
         <v>62.99</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>-4153.49</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>MP165</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>NIFTY09NOV23C19250</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 11:52:00</t>
-        </is>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="D10" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45233.49444444444</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>110.26</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="5" t="n">
         <v>96.7</v>
       </c>
-      <c r="H10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6" t="n">
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
         <v>-13.56</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="5" t="n">
         <v>-6780</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="5" t="n">
         <v>95.65000000000001</v>
       </c>
-      <c r="N10" s="6" t="n">
+      <c r="N10" s="5" t="n">
         <v>-6875.65</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>MP166</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY08NOV23C43400</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 10:58:00</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 11:18:00</t>
-        </is>
-      </c>
-      <c r="F11" s="6" t="n">
+      <c r="D11" s="6" t="n">
+        <v>45233.45694444444</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45233.47083333333</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>243.74</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="5" t="n">
         <v>202.34</v>
       </c>
-      <c r="H11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6" t="n">
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
         <v>-41.4</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="1" t="n">
         <v>195</v>
       </c>
-      <c r="L11" s="6" t="n">
+      <c r="L11" s="5" t="n">
         <v>-8073</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="5" t="n">
         <v>84.56999999999999</v>
       </c>
-      <c r="N11" s="6" t="n">
+      <c r="N11" s="5" t="n">
         <v>-8157.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45235.59791666667</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19250</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:21:00</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="N16" s="5" t="n">
+        <v>-35.4</v>
       </c>
     </row>
   </sheetData>
@@ -1189,344 +1321,588 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="2" min="7" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol Symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>AP75</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0218500PE</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.62222222222</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>207</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>224.8</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="5" t="n">
         <v>12.2</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="5" t="n">
         <v>9.85</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="5" t="n">
         <v>-20.15</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>-2015</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>173.07</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>-2188.07</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>AP76</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19200</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45230.39375</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45230.62222222222</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>172.66</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>149.9</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="5" t="n">
         <v>6.1</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="5" t="n">
         <v>19.81</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>2971.5</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>170.76</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>2800.74</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>AP77</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45231.40347222222</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45231.61458333334</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>139.95</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>140.5</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>4.95</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="5" t="n">
         <v>2.7</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>-2.8</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>-420</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>168.47</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-588.47</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>AP78</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY02NOV23P19100</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45232.38958333333</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45232.62222222222</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>82</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>29.1</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>1.1</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="5" t="n">
         <v>0.1</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="5" t="n">
         <v>51.9</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>7785</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>147.06</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>7637.94</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>AP79</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0919200CE</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 09:21:00</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 14:56:00</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="n">
+      <c r="D6" s="6" t="n">
+        <v>45233.38958333333</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>45233.62222222222</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>213.37</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="5" t="n">
         <v>192.2</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="5" t="n">
         <v>9.5</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="5" t="n">
         <v>8.25</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="5" t="n">
         <v>19.92</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="L6" s="6" t="n">
+      <c r="L6" s="5" t="n">
         <v>2988</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="5" t="n">
         <v>179.07</v>
       </c>
-      <c r="N6" s="6" t="n">
+      <c r="N6" s="5" t="n">
         <v>2808.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19200</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>45235.59444444445</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>45235.59583333333</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-141.6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19200</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45235.59444444445</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>45235.59583333333</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-141.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19200</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45235.59444444445</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45235.59583333333</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>-141.6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19200</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45235.59444444445</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45235.59583333333</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-141.6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY09NOV23P19200</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Short</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:16:00</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr">
+        <is>
+          <t>2023-11-05 14:18:00</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-141.6</v>
       </c>
     </row>
   </sheetData>
@@ -1540,299 +1916,321 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="8.77734375" customWidth="1" style="2" min="1" max="3"/>
-    <col width="17.6640625" bestFit="1" customWidth="1" style="2" min="4" max="5"/>
-    <col width="8.77734375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="8.77734375" customWidth="1" style="2" min="7" max="11"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="2" min="12" max="12"/>
-    <col width="8.77734375" customWidth="1" style="2" min="13" max="13"/>
-    <col width="9.21875" bestFit="1" customWidth="1" style="2" min="14" max="14"/>
-    <col width="8.77734375" customWidth="1" style="2" min="15" max="16384"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>OO28</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NIFTY30NOV23F</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.63541666666</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45230.3875</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="5" t="n">
         <v>19210.8</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="5" t="n">
         <v>19236.65</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="5" t="n">
         <v>30.4</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="5" t="n">
         <v>38.6</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="5" t="n">
         <v>-17.65</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="6" t="n">
+      <c r="L2" s="5" t="n">
         <v>-1765</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="5" t="n">
         <v>572.25</v>
       </c>
-      <c r="N2" s="6" t="n">
+      <c r="N2" s="5" t="n">
         <v>-2337.25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>OO29</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>NIFTY30NOV23F</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45230.63541666666</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45231.3875</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5" t="n">
         <v>19199.06</v>
       </c>
-      <c r="G3" s="6" t="n">
+      <c r="G3" s="5" t="n">
         <v>19151.3</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="5" t="n">
         <v>26.6</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="5" t="n">
         <v>27.77</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="5" t="n">
         <v>-46.59</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L3" s="6" t="n">
+      <c r="L3" s="5" t="n">
         <v>-4659</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="5" t="n">
         <v>568.76</v>
       </c>
-      <c r="N3" s="6" t="n">
+      <c r="N3" s="5" t="n">
         <v>-5227.76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>OO30</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>NIFTY30NOV23F</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>44937.63541666666</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45232.3875</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5" t="n">
         <v>19056.88</v>
       </c>
-      <c r="G4" s="6" t="n">
+      <c r="G4" s="5" t="n">
         <v>19221.27</v>
       </c>
-      <c r="H4" s="6" t="n">
+      <c r="H4" s="5" t="n">
         <v>8.300000000000001</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="5" t="n">
         <v>31</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="5" t="n">
         <v>-141.7</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L4" s="6" t="n">
+      <c r="L4" s="5" t="n">
         <v>-14169.5</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="5" t="n">
         <v>572.89</v>
       </c>
-      <c r="N4" s="6" t="n">
+      <c r="N4" s="5" t="n">
         <v>-14742.39</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>OO31</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>NIFTY30NOV23F</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 15:15:00</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>2023-11-03 09:18:00</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n">
+      <c r="D5" s="6" t="n">
+        <v>45233.63541666666</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>45233.3875</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>19228.45</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="5" t="n">
         <v>19347.5</v>
       </c>
-      <c r="H5" s="6" t="n">
+      <c r="H5" s="5" t="n">
         <v>35.1</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="5" t="n">
         <v>14.15</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="5" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L5" s="6" t="n">
+      <c r="L5" s="5" t="n">
         <v>9810</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="5" t="n">
         <v>569.8099999999999</v>
       </c>
-      <c r="N5" s="6" t="n">
+      <c r="N5" s="5" t="n">
         <v>9240.190000000001</v>
       </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>OO28</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>NIFTY30NOV23F</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Long</t>
+        </is>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>45235.60486111111</v>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1851,277 +2249,277 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>trade_id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>trading_symbol</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>hedge_entry_price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>hedge_exit_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>trade_points</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="3" t="inlineStr">
         <is>
           <t>pnl</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>tax</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="3" t="inlineStr">
         <is>
           <t>net_pnl</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Error1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0218500PE</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F2" s="5" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G2" s="4" t="n">
+      <c r="G2" s="5" t="n">
         <v>8.75</v>
       </c>
-      <c r="H2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="n">
+      <c r="H2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5" t="n">
         <v>-0.55</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="4" t="n">
+      <c r="L2" s="5" t="n">
         <v>-55</v>
       </c>
-      <c r="M2" s="4" t="n">
+      <c r="M2" s="5" t="n">
         <v>43.62</v>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N2" s="5" t="n">
         <v>-98.62</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Error2</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>NIFTY23N0219500CE</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr">
         <is>
           <t>Short</t>
         </is>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="6" t="n">
         <v>45229.38958333333</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="F3" s="5" t="n">
         <v>4.25</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5" t="n">
         <v>3.45</v>
       </c>
-      <c r="H3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4" t="n">
+      <c r="H3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5" t="n">
         <v>0.8</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="L3" s="4" t="n">
+      <c r="L3" s="5" t="n">
         <v>80</v>
       </c>
-      <c r="M3" s="4" t="n">
+      <c r="M3" s="5" t="n">
         <v>42.69</v>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N3" s="5" t="n">
         <v>37.31</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Error3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>BANKNIFTY01NOV23P42600</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="5" t="n">
         <v>64.45999999999999</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>60.05</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="n">
+      <c r="H4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="n">
         <v>-4.41</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="L4" s="4" t="n">
+      <c r="L4" s="5" t="n">
         <v>-529.2</v>
       </c>
-      <c r="M4" s="4" t="n">
+      <c r="M4" s="5" t="n">
         <v>35.44</v>
       </c>
-      <c r="N4" s="4" t="n">
+      <c r="N4" s="5" t="n">
         <v>-564.64</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Error4</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>FINNIFTY07NOV23P19100</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>Long</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="6" t="n">
         <v>45231.46597222222</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="6" t="n">
         <v>45231.46666666667</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="5" t="n">
         <v>112.07</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>106.85</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="H5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="n">
         <v>-5.22</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="5" t="n">
         <v>-2088</v>
       </c>
-      <c r="M5" s="4" t="n">
+      <c r="M5" s="5" t="n">
         <v>43.72</v>
       </c>
-      <c r="N5" s="4" t="n">
+      <c r="N5" s="5" t="n">
         <v>-2131.72</v>
       </c>
     </row>
@@ -2136,7 +2534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2145,37 +2543,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Sl NO</t>
         </is>
       </c>
-      <c r="B1" s="8" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="D1" s="8" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Trade ID</t>
         </is>
       </c>
-      <c r="E1" s="8" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Details</t>
         </is>
       </c>
-      <c r="F1" s="8" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="G1" s="8" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>Running Balance</t>
         </is>
@@ -3014,6 +3412,356 @@
       <c r="G25" t="inlineStr">
         <is>
           <t>₹ 5,29,430.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>₹5,29,394.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>₹5,29,359.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>₹5,29,324.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>₹5,29,288.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>MP41</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-₹35.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>₹5,29,253.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-₹141.60</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>₹5,29,111.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-₹141.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>₹5,28,970.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-₹141.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>₹5,28,828.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-₹141.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>₹5,28,686.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>05-Nov-23</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AP36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>AmiPy</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-₹141.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>₹5,28,545.24</t>
         </is>
       </c>
     </row>
